--- a/input_data/two_stage_dh_model.xlsx
+++ b/input_data/two_stage_dh_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FE4DDD-B707-4202-9504-E9E18E09D7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA51A5CD-FC82-4A2A-94DF-8D06C8EFC96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="10" activeTab="16" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="10" activeTab="19" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -32,13 +32,14 @@
     <sheet name="reserve_realisation" sheetId="23" r:id="rId17"/>
     <sheet name="market_prices" sheetId="8" r:id="rId18"/>
     <sheet name="balance_prices" sheetId="20" r:id="rId19"/>
-    <sheet name="risk" sheetId="17" r:id="rId20"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId21"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId22"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId23"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId24"/>
-    <sheet name="constraints" sheetId="14" r:id="rId25"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId26"/>
+    <sheet name="reserve_activation_price" sheetId="28" r:id="rId20"/>
+    <sheet name="risk" sheetId="17" r:id="rId21"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId22"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId23"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId24"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId25"/>
+    <sheet name="constraints" sheetId="14" r:id="rId26"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="150">
   <si>
     <t>node</t>
   </si>
@@ -6948,206 +6949,206 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>45398</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>45398.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>45398.083333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>45398.125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>45398.166666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>45398.208333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>45398.25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>45398.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>45398.333333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>45398.375</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>45398.416666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>45398.458333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>45398.5</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>45398.541666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>45398.583333333336</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>45398.625</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>45398.666666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>45398.708333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>45398.75</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>45398.791666666664</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>45398.833333333336</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>45398.875</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>45398.916666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>45398.958333333336</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
     </row>
   </sheetData>
@@ -7164,12 +7165,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>92</v>
       </c>
@@ -7194,9 +7195,9 @@
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -7217,15 +7218,15 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -7239,7 +7240,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
@@ -7258,7 +7259,7 @@
       <c r="F2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
@@ -7275,7 +7276,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
@@ -7292,7 +7293,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
@@ -7309,7 +7310,7 @@
         <v>0.46000000000000008</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
@@ -7326,7 +7327,7 @@
         <v>0.3600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
@@ -7343,7 +7344,7 @@
         <v>0.28000000000000008</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
@@ -7360,7 +7361,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
@@ -7377,7 +7378,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
@@ -7394,7 +7395,7 @@
         <v>0.23000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
@@ -7411,7 +7412,7 @@
         <v>0.23000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
@@ -7428,7 +7429,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
@@ -7445,7 +7446,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
@@ -7460,7 +7461,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
@@ -7475,7 +7476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
@@ -7490,7 +7491,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
@@ -7505,7 +7506,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
@@ -7520,7 +7521,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
@@ -7535,7 +7536,7 @@
         <v>2.0000000000000004E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
@@ -7550,7 +7551,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
@@ -7565,7 +7566,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
@@ -7580,7 +7581,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
@@ -7595,7 +7596,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
@@ -7610,7 +7611,7 @@
         <v>0.11000000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
@@ -7641,14 +7642,14 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="4" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="4" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -7662,7 +7663,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
@@ -7680,7 +7681,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
@@ -7698,7 +7699,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
@@ -7716,7 +7717,7 @@
       </c>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
@@ -7734,7 +7735,7 @@
       </c>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
@@ -7752,7 +7753,7 @@
       </c>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
@@ -7770,7 +7771,7 @@
       </c>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
@@ -7788,7 +7789,7 @@
       </c>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
@@ -7806,7 +7807,7 @@
       </c>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
@@ -7824,7 +7825,7 @@
       </c>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
@@ -7842,7 +7843,7 @@
       </c>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
@@ -7860,7 +7861,7 @@
       </c>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
@@ -7878,7 +7879,7 @@
       </c>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
@@ -7894,7 +7895,7 @@
       </c>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
@@ -7910,7 +7911,7 @@
       </c>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
@@ -7926,7 +7927,7 @@
       </c>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
@@ -7942,7 +7943,7 @@
       </c>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
@@ -7958,7 +7959,7 @@
       </c>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
@@ -7974,7 +7975,7 @@
       </c>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
@@ -7990,7 +7991,7 @@
       </c>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
@@ -8006,7 +8007,7 @@
       </c>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
@@ -8022,7 +8023,7 @@
       </c>
       <c r="G22"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
@@ -8038,7 +8039,7 @@
       </c>
       <c r="G23"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
@@ -8054,7 +8055,7 @@
       </c>
       <c r="G24"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
@@ -8086,82 +8087,82 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="C2" s="8"/>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="C5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -8180,12 +8181,12 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -8208,7 +8209,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
@@ -8232,7 +8233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
@@ -8256,7 +8257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
@@ -8280,7 +8281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
@@ -8304,7 +8305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
@@ -8328,7 +8329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
@@ -8352,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
@@ -8376,7 +8377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
@@ -8400,7 +8401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
@@ -8424,7 +8425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
@@ -8448,7 +8449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
@@ -8472,7 +8473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
@@ -8496,7 +8497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
@@ -8520,7 +8521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
@@ -8544,7 +8545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
@@ -8568,7 +8569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
@@ -8592,7 +8593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
@@ -8616,7 +8617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
@@ -8640,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
@@ -8664,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
@@ -8688,7 +8689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
@@ -8712,7 +8713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
@@ -8736,7 +8737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
@@ -8760,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
@@ -8798,19 +8799,19 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="7"/>
+    <col min="2" max="2" width="7.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -8848,7 +8849,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -8886,13 +8887,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I4"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I5"/>
     </row>
   </sheetData>
@@ -8905,196 +8906,196 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E266E0-7523-413E-8B0C-F3E2413808A5}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="3" width="6.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="str">
         <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="str">
         <f>IF(timeseries!A27&lt;&gt;"",timeseries!A27,"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="str">
         <f>IF(timeseries!A28&lt;&gt;"",timeseries!A28,"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="str">
         <f>IF(timeseries!A29&lt;&gt;"",timeseries!A29,"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="str">
         <f>IF(timeseries!A30&lt;&gt;"",timeseries!A30,"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="str">
         <f>IF(timeseries!A31&lt;&gt;"",timeseries!A31,"")</f>
         <v/>
@@ -9113,15 +9114,15 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="4" width="11.44140625" customWidth="1"/>
-    <col min="5" max="6" width="11.109375" customWidth="1"/>
-    <col min="8" max="10" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="4" width="11.42578125" customWidth="1"/>
+    <col min="5" max="6" width="11.140625" customWidth="1"/>
+    <col min="8" max="10" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -9135,7 +9136,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
@@ -9151,7 +9152,7 @@
         <v>59.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
@@ -9167,7 +9168,7 @@
         <v>47.58</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
@@ -9183,7 +9184,7 @@
         <v>52.53</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
@@ -9199,7 +9200,7 @@
         <v>55.879999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
@@ -9215,7 +9216,7 @@
         <v>53.54</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
@@ -9231,7 +9232,7 @@
         <v>62.91</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
@@ -9247,7 +9248,7 @@
         <v>89.56</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
@@ -9263,7 +9264,7 @@
         <v>89.22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
@@ -9279,7 +9280,7 @@
         <v>77.22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
@@ -9295,7 +9296,7 @@
         <v>80.3</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
@@ -9311,7 +9312,7 @@
         <v>85.23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
@@ -9327,7 +9328,7 @@
         <v>80.87</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
@@ -9342,7 +9343,7 @@
         <v>81.430000000000007</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
@@ -9357,7 +9358,7 @@
         <v>99.39</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
@@ -9372,7 +9373,7 @@
         <v>96.43</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
@@ -9387,7 +9388,7 @@
         <v>101.3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
@@ -9402,7 +9403,7 @@
         <v>103.32</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
@@ -9417,7 +9418,7 @@
         <v>100.25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
@@ -9432,7 +9433,7 @@
         <v>101.93</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
@@ -9447,7 +9448,7 @@
         <v>97.08</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
@@ -9462,7 +9463,7 @@
         <v>96.789999999999992</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
@@ -9477,7 +9478,7 @@
         <v>91.75</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
@@ -9492,7 +9493,7 @@
         <v>89.15</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
@@ -9507,37 +9508,37 @@
         <v>88.71</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="str">
         <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="str">
         <f>IF(timeseries!A27&lt;&gt;"",timeseries!A27,"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="str">
         <f>IF(timeseries!A28&lt;&gt;"",timeseries!A28,"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="str">
         <f>IF(timeseries!A29&lt;&gt;"",timeseries!A29,"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="str">
         <f>IF(timeseries!A30&lt;&gt;"",timeseries!A30,"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="str">
         <f>IF(timeseries!A31&lt;&gt;"",timeseries!A31,"")</f>
         <v/>
@@ -9559,15 +9560,15 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="6" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -9591,7 +9592,7 @@
       </c>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
@@ -9621,7 +9622,7 @@
         <v>59.24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
@@ -9651,7 +9652,7 @@
         <v>47.57</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
@@ -9681,7 +9682,7 @@
         <v>52.52</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
@@ -9711,7 +9712,7 @@
         <v>55.87</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
@@ -9741,7 +9742,7 @@
         <v>53.53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
@@ -9771,7 +9772,7 @@
         <v>62.9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
@@ -9801,7 +9802,7 @@
         <v>89.55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
@@ -9831,7 +9832,7 @@
         <v>89.21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
@@ -9861,7 +9862,7 @@
         <v>77.209999999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
@@ -9891,7 +9892,7 @@
         <v>80.289999999999992</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
@@ -9921,7 +9922,7 @@
         <v>85.22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
@@ -9951,7 +9952,7 @@
         <v>80.86</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
@@ -9981,7 +9982,7 @@
         <v>81.42</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
@@ -10011,7 +10012,7 @@
         <v>99.38</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
@@ -10041,7 +10042,7 @@
         <v>96.42</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
@@ -10071,7 +10072,7 @@
         <v>101.28999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
@@ -10101,7 +10102,7 @@
         <v>103.30999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
@@ -10131,7 +10132,7 @@
         <v>100.24</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
@@ -10161,7 +10162,7 @@
         <v>101.92</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
@@ -10191,7 +10192,7 @@
         <v>97.07</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
@@ -10221,7 +10222,7 @@
         <v>96.779999999999987</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
@@ -10251,7 +10252,7 @@
         <v>91.74</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
@@ -10281,7 +10282,7 @@
         <v>89.14</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
@@ -10311,49 +10312,49 @@
         <v>88.699999999999989</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="str">
         <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="str">
         <f>IF(timeseries!A27&lt;&gt;"",timeseries!A27,"")</f>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="str">
         <f>IF(timeseries!A28&lt;&gt;"",timeseries!A28,"")</f>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="str">
         <f>IF(timeseries!A29&lt;&gt;"",timeseries!A29,"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="str">
         <f>IF(timeseries!A30&lt;&gt;"",timeseries!A30,"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="str">
         <f>IF(timeseries!A31&lt;&gt;"",timeseries!A31,"")</f>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="str">
         <f>IF(timeseries!A32&lt;&gt;"",timeseries!A32,"")</f>
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="str">
         <f>IF(timeseries!A33&lt;&gt;"",timeseries!A33,"")</f>
         <v/>
@@ -10374,13 +10375,13 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -10388,7 +10389,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>101</v>
       </c>
@@ -10396,7 +10397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>102</v>
       </c>
@@ -10404,7 +10405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>103</v>
       </c>
@@ -10412,7 +10413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -10420,7 +10421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>131</v>
       </c>
@@ -10428,7 +10429,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -10436,7 +10437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>132</v>
       </c>
@@ -10444,7 +10445,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -10452,7 +10453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>107</v>
       </c>
@@ -10467,6 +10468,261 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AC839B-83EF-4125-B3A8-4A12BECA18D1}">
+  <dimension ref="A1:BA31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1"/>
+      <c r="C1"/>
+      <c r="D1"/>
+      <c r="E1"/>
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+      <c r="Q1"/>
+      <c r="R1"/>
+      <c r="S1"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>45398.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>45398.083333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>45398.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>45398.166666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>45398.208333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>45398.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>45398.291666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>45398.333333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>45398.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>45398.416666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>45398.458333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>45398.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>45398.541666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>45398.583333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>45398.625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>45398.666666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>45398.708333333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>45398.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>45398.791666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>45398.833333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>45398.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>45398.916666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>45398.958333333336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="str">
+        <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="str">
+        <f>IF(timeseries!A27&lt;&gt;"",timeseries!A27,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="str">
+        <f>IF(timeseries!A28&lt;&gt;"",timeseries!A28,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="str">
+        <f>IF(timeseries!A29&lt;&gt;"",timeseries!A29,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="str">
+        <f>IF(timeseries!A30&lt;&gt;"",timeseries!A30,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="str">
+        <f>IF(timeseries!A31&lt;&gt;"",timeseries!A31,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -10474,12 +10730,12 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -10487,7 +10743,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -10495,7 +10751,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -10508,7 +10764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -10516,9 +10772,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
@@ -10526,7 +10782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -10534,7 +10790,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -10542,7 +10798,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>88</v>
       </c>
@@ -10555,7 +10811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -10563,162 +10819,162 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
       </c>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
       </c>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
       </c>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
       </c>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
       </c>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
@@ -10729,7 +10985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -10737,13 +10993,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -10757,7 +11013,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
@@ -10774,7 +11030,7 @@
         <v>1.9500000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
@@ -10791,7 +11047,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
@@ -10808,7 +11064,7 @@
         <v>1.9300000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
@@ -10825,7 +11081,7 @@
         <v>1.7800000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
@@ -10842,7 +11098,7 @@
         <v>1.9200000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
@@ -10859,7 +11115,7 @@
         <v>1.8200000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
@@ -10876,7 +11132,7 @@
         <v>1.7700000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
@@ -10893,7 +11149,7 @@
         <v>1.9400000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
@@ -10910,7 +11166,7 @@
         <v>1.8200000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
@@ -10927,7 +11183,7 @@
         <v>1.8000000000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
@@ -10944,7 +11200,7 @@
         <v>1.7800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
@@ -10961,7 +11217,7 @@
         <v>1.9000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
@@ -10976,7 +11232,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
@@ -10991,7 +11247,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
@@ -11006,7 +11262,7 @@
         <v>1.4499999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
@@ -11021,7 +11277,7 @@
         <v>1.2899999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
@@ -11036,7 +11292,7 @@
         <v>1.1699999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
@@ -11051,7 +11307,7 @@
         <v>1.1299999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
@@ -11066,7 +11322,7 @@
         <v>1.3099999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
@@ -11081,7 +11337,7 @@
         <v>1.1099999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
@@ -11096,7 +11352,7 @@
         <v>1.0699999999999994</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
@@ -11111,7 +11367,7 @@
         <v>1.2399999999999993</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
@@ -11126,7 +11382,7 @@
         <v>1.4099999999999993</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
@@ -11139,425 +11395,6 @@
       </c>
       <c r="D25">
         <v>1.4099999999999993</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
-  <dimension ref="A1:D25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>45398</v>
-      </c>
-      <c r="B2" s="1">
-        <f>D2</f>
-        <v>2.4950000000000001</v>
-      </c>
-      <c r="C2" s="1">
-        <f>D2</f>
-        <v>2.4950000000000001</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.4950000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>45398.041666666664</v>
-      </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B13" si="0">D3</f>
-        <v>2.5449999999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3:C13" si="1">D3</f>
-        <v>2.5449999999999999</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2.5449999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>45398.083333333336</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4449999999999998</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" si="1"/>
-        <v>2.4449999999999998</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.4449999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>45398.125</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4949999999999997</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" si="1"/>
-        <v>2.4949999999999997</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2.4949999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v>45398.166666666664</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>2.6449999999999996</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6449999999999996</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.6449999999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v>45398.208333333336</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>2.5449999999999995</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5449999999999995</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2.5449999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v>45398.25</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>2.5949999999999993</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5949999999999993</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.5949999999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v>45398.291666666664</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4949999999999992</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="1"/>
-        <v>2.4949999999999992</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2.4949999999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v>45398.333333333336</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4949999999999992</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="1"/>
-        <v>2.4949999999999992</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2.4949999999999992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v>45398.375</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>2.4449999999999994</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="1"/>
-        <v>2.4449999999999994</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2.4449999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v>45398.416666666664</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>2.5449999999999995</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5449999999999995</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2.5449999999999995</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v>45398.458333333336</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>2.3949999999999996</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="1"/>
-        <v>2.3949999999999996</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2.3949999999999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v>45398.5</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2.0149999999999997</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2.6950000000000003</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2.4949999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v>45398.541666666664</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1.9649999999999996</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2.7950000000000004</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2.6449999999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v>45398.583333333336</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2.0649999999999995</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2.9450000000000003</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2.7449999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v>45398.625</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2.0649999999999995</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2.8950000000000005</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2.7949999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v>45398.666666666664</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2.2149999999999994</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3.0450000000000004</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2.8949999999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v>45398.708333333336</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2.3149999999999995</v>
-      </c>
-      <c r="C19" s="1">
-        <v>3.1950000000000003</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2.9449999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v>45398.75</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2.3149999999999995</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3.0950000000000002</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2.9449999999999994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v>45398.791666666664</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2.3649999999999993</v>
-      </c>
-      <c r="C21" s="1">
-        <v>3.0450000000000004</v>
-      </c>
-      <c r="D21" s="1">
-        <v>3.0449999999999995</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v>45398.833333333336</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2.2649999999999992</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3.0950000000000002</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2.9949999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v>45398.875</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2.3649999999999993</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2.9450000000000003</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2.8949999999999996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v>45398.916666666664</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2.3649999999999993</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2.8950000000000005</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2.8949999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v>45398.958333333336</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2.5149999999999992</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2.9450000000000003</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2.7949999999999995</v>
       </c>
     </row>
   </sheetData>
@@ -11569,6 +11406,425 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>45398</v>
+      </c>
+      <c r="B2" s="1">
+        <f>D2</f>
+        <v>2.4950000000000001</v>
+      </c>
+      <c r="C2" s="1">
+        <f>D2</f>
+        <v>2.4950000000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.4950000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>45398.041666666664</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B13" si="0">D3</f>
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C13" si="1">D3</f>
+        <v>2.5449999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.5449999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>45398.083333333336</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4449999999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4449999999999998</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.4449999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>45398.125</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4949999999999997</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4949999999999997</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.4949999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>45398.166666666664</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.6449999999999996</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6449999999999996</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2.6449999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>45398.208333333336</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5449999999999995</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5449999999999995</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.5449999999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>45398.25</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5949999999999993</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5949999999999993</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.5949999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>45398.291666666664</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4949999999999992</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4949999999999992</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2.4949999999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>45398.333333333336</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4949999999999992</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4949999999999992</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.4949999999999992</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>45398.375</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4449999999999994</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4449999999999994</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.4449999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>45398.416666666664</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>2.5449999999999995</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5449999999999995</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2.5449999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>45398.458333333336</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3949999999999996</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3949999999999996</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.3949999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>45398.5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.0149999999999997</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.6950000000000003</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.4949999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>45398.541666666664</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.9649999999999996</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2.7950000000000004</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2.6449999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>45398.583333333336</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.0649999999999995</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.9450000000000003</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.7449999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>45398.625</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.0649999999999995</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2.8950000000000005</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2.7949999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>45398.666666666664</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.2149999999999994</v>
+      </c>
+      <c r="C18" s="1">
+        <v>3.0450000000000004</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2.8949999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>45398.708333333336</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2.3149999999999995</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.1950000000000003</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2.9449999999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>45398.75</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.3149999999999995</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3.0950000000000002</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.9449999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>45398.791666666664</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.3649999999999993</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3.0450000000000004</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3.0449999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>45398.833333333336</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.2649999999999992</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.0950000000000002</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.9949999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>45398.875</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.3649999999999993</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.9450000000000003</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.8949999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>45398.916666666664</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.3649999999999993</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.8950000000000005</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.8949999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>45398.958333333336</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.5149999999999992</v>
+      </c>
+      <c r="C25" s="1">
+        <v>2.9450000000000003</v>
+      </c>
+      <c r="D25" s="1">
+        <v>2.7949999999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -11576,14 +11832,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -11597,7 +11853,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -11611,7 +11867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>133</v>
       </c>
@@ -11625,7 +11881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -11636,7 +11892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:S25"/>
   <sheetViews>
@@ -11644,17 +11900,17 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
-    <col min="2" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+    <col min="2" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -11713,7 +11969,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
@@ -11773,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
@@ -11833,7 +12089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
@@ -11893,7 +12149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
@@ -11953,7 +12209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
@@ -12013,7 +12269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
@@ -12073,7 +12329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
@@ -12133,7 +12389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
@@ -12193,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
@@ -12253,7 +12509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
@@ -12313,7 +12569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
@@ -12373,7 +12629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
@@ -12433,7 +12689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
@@ -12493,7 +12749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
@@ -12553,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
@@ -12613,7 +12869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
@@ -12673,7 +12929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
@@ -12733,7 +12989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
@@ -12793,7 +13049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
@@ -12853,7 +13109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
@@ -12913,7 +13169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
@@ -12973,7 +13229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
@@ -13033,7 +13289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
@@ -13093,7 +13349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
@@ -13168,20 +13424,20 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13231,7 +13487,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -13281,7 +13537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -13331,7 +13587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -13381,7 +13637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>64</v>
       </c>
@@ -13431,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>122</v>
       </c>
@@ -13495,23 +13751,23 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="9.109375" style="3"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -13564,7 +13820,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>65</v>
       </c>
@@ -13617,7 +13873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -13670,7 +13926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>130</v>
       </c>
@@ -13723,7 +13979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -13776,7 +14032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -13829,7 +14085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>113</v>
       </c>
@@ -13882,7 +14138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>116</v>
       </c>
@@ -13935,643 +14191,643 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P9" s="7"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P10" s="7"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P11" s="7"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P12" s="7"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P13" s="7"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P14" s="7"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P15" s="7"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P16" s="7"/>
     </row>
-    <row r="17" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P17" s="7"/>
     </row>
-    <row r="18" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P18" s="7"/>
     </row>
-    <row r="19" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P19" s="7"/>
     </row>
-    <row r="20" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P20" s="7"/>
     </row>
-    <row r="21" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P21" s="7"/>
     </row>
-    <row r="22" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P22" s="7"/>
     </row>
-    <row r="23" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P23" s="7"/>
     </row>
-    <row r="24" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P24" s="7"/>
     </row>
-    <row r="25" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P25" s="7"/>
     </row>
-    <row r="26" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P26" s="7"/>
     </row>
-    <row r="27" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P27" s="7"/>
     </row>
-    <row r="28" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P28" s="7"/>
     </row>
-    <row r="29" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P29" s="7"/>
     </row>
-    <row r="30" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P30" s="7"/>
     </row>
-    <row r="31" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P31" s="7"/>
     </row>
-    <row r="32" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P32" s="7"/>
     </row>
-    <row r="33" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P34" s="7"/>
     </row>
-    <row r="35" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P35" s="7"/>
     </row>
-    <row r="36" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P36" s="7"/>
     </row>
-    <row r="37" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P37" s="7"/>
     </row>
-    <row r="38" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P38" s="7"/>
     </row>
-    <row r="39" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P39" s="7"/>
     </row>
-    <row r="40" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P40" s="7"/>
     </row>
-    <row r="41" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P41" s="7"/>
     </row>
-    <row r="42" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P42" s="7"/>
     </row>
-    <row r="43" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P43" s="7"/>
     </row>
-    <row r="44" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P44" s="7"/>
     </row>
-    <row r="45" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P45" s="7"/>
     </row>
-    <row r="46" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P46" s="7"/>
     </row>
-    <row r="47" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P47" s="7"/>
     </row>
-    <row r="48" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P48" s="7"/>
     </row>
-    <row r="49" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P49" s="7"/>
     </row>
-    <row r="50" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P50" s="7"/>
     </row>
-    <row r="51" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P51" s="7"/>
     </row>
-    <row r="52" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="52" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P52" s="7"/>
     </row>
-    <row r="53" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P53" s="7"/>
     </row>
-    <row r="54" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P54" s="7"/>
     </row>
-    <row r="55" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P55" s="7"/>
     </row>
-    <row r="56" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P56" s="7"/>
     </row>
-    <row r="57" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P57" s="7"/>
     </row>
-    <row r="58" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P58" s="7"/>
     </row>
-    <row r="59" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P59" s="7"/>
     </row>
-    <row r="60" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P60" s="7"/>
     </row>
-    <row r="61" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P61" s="7"/>
     </row>
-    <row r="62" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P62" s="7"/>
     </row>
-    <row r="63" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P63" s="7"/>
     </row>
-    <row r="64" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P64" s="7"/>
     </row>
-    <row r="65" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P65" s="7"/>
     </row>
-    <row r="66" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P66" s="7"/>
     </row>
-    <row r="67" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P67" s="7"/>
     </row>
-    <row r="68" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P68" s="7"/>
     </row>
-    <row r="69" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P69" s="7"/>
     </row>
-    <row r="70" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P70" s="7"/>
     </row>
-    <row r="71" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P71" s="7"/>
     </row>
-    <row r="72" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P72" s="7"/>
     </row>
-    <row r="73" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P73" s="7"/>
     </row>
-    <row r="74" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P74" s="7"/>
     </row>
-    <row r="75" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P75" s="7"/>
     </row>
-    <row r="76" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P76" s="7"/>
     </row>
-    <row r="77" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P77" s="7"/>
     </row>
-    <row r="78" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P78" s="7"/>
     </row>
-    <row r="79" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P79" s="7"/>
     </row>
-    <row r="80" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P80" s="7"/>
     </row>
-    <row r="81" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P81" s="7"/>
     </row>
-    <row r="82" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="82" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P82" s="7"/>
     </row>
-    <row r="83" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P83" s="7"/>
     </row>
-    <row r="84" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P84" s="7"/>
     </row>
-    <row r="85" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P85" s="7"/>
     </row>
-    <row r="86" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P86" s="7"/>
     </row>
-    <row r="87" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P87" s="7"/>
     </row>
-    <row r="88" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P88" s="7"/>
     </row>
-    <row r="89" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P89" s="7"/>
     </row>
-    <row r="90" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P90" s="7"/>
     </row>
-    <row r="91" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P91" s="7"/>
     </row>
-    <row r="92" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P92" s="7"/>
     </row>
-    <row r="93" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="93" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P93" s="7"/>
     </row>
-    <row r="94" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P94" s="7"/>
     </row>
-    <row r="95" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P95" s="7"/>
     </row>
-    <row r="96" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P96" s="7"/>
     </row>
-    <row r="97" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="97" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P97" s="7"/>
     </row>
-    <row r="98" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="98" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P98" s="7"/>
     </row>
-    <row r="99" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="99" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P99" s="7"/>
     </row>
-    <row r="100" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="100" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P100" s="7"/>
     </row>
-    <row r="101" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="101" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P101" s="7"/>
     </row>
-    <row r="102" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="102" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P102" s="7"/>
     </row>
-    <row r="103" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="103" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P103" s="7"/>
     </row>
-    <row r="104" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="104" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P104" s="7"/>
     </row>
-    <row r="105" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="105" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P105" s="7"/>
     </row>
-    <row r="106" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="106" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P106" s="7"/>
     </row>
-    <row r="107" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="107" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P107" s="7"/>
     </row>
-    <row r="108" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="108" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P108" s="7"/>
     </row>
-    <row r="109" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="109" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P109" s="7"/>
     </row>
-    <row r="110" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="110" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P110" s="7"/>
     </row>
-    <row r="111" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="111" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P111" s="7"/>
     </row>
-    <row r="112" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="112" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P112" s="7"/>
     </row>
-    <row r="113" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="113" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P113" s="7"/>
     </row>
-    <row r="114" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="114" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P114" s="7"/>
     </row>
-    <row r="115" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="115" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P115" s="7"/>
     </row>
-    <row r="116" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="116" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P116" s="7"/>
     </row>
-    <row r="117" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="117" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P117" s="7"/>
     </row>
-    <row r="118" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="118" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P118" s="7"/>
     </row>
-    <row r="119" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="119" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P119" s="7"/>
     </row>
-    <row r="120" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="120" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P120" s="7"/>
     </row>
-    <row r="121" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="121" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P121" s="7"/>
     </row>
-    <row r="122" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="122" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P122" s="7"/>
     </row>
-    <row r="123" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="123" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P123" s="7"/>
     </row>
-    <row r="124" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="124" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P124" s="7"/>
     </row>
-    <row r="125" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="125" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P125" s="7"/>
     </row>
-    <row r="126" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="126" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P126" s="7"/>
     </row>
-    <row r="127" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="127" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P127" s="7"/>
     </row>
-    <row r="128" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="128" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P128" s="7"/>
     </row>
-    <row r="129" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P129" s="7"/>
     </row>
-    <row r="130" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P130" s="7"/>
     </row>
-    <row r="131" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P131" s="7"/>
     </row>
-    <row r="132" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P132" s="7"/>
     </row>
-    <row r="133" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P133" s="7"/>
     </row>
-    <row r="134" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P134" s="7"/>
     </row>
-    <row r="135" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P135" s="7"/>
     </row>
-    <row r="136" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P136" s="7"/>
     </row>
-    <row r="137" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P137" s="7"/>
     </row>
-    <row r="138" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="138" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P138" s="7"/>
     </row>
-    <row r="139" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P139" s="7"/>
     </row>
-    <row r="140" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="140" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P140" s="7"/>
     </row>
-    <row r="141" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P141" s="7"/>
     </row>
-    <row r="142" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P142" s="7"/>
     </row>
-    <row r="143" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P143" s="7"/>
     </row>
-    <row r="144" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="144" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P144" s="7"/>
     </row>
-    <row r="145" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P145" s="7"/>
     </row>
-    <row r="146" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="146" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P146" s="7"/>
     </row>
-    <row r="147" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P147" s="7"/>
     </row>
-    <row r="148" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P148" s="7"/>
     </row>
-    <row r="149" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P149" s="7"/>
     </row>
-    <row r="150" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P150" s="7"/>
     </row>
-    <row r="151" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P151" s="7"/>
     </row>
-    <row r="152" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P152" s="7"/>
     </row>
-    <row r="153" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P153" s="7"/>
     </row>
-    <row r="154" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P154" s="7"/>
     </row>
-    <row r="155" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P155" s="7"/>
     </row>
-    <row r="156" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P156" s="7"/>
     </row>
-    <row r="157" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P157" s="7"/>
     </row>
-    <row r="158" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P158" s="7"/>
     </row>
-    <row r="159" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P159" s="7"/>
     </row>
-    <row r="160" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P160" s="7"/>
     </row>
-    <row r="161" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P161" s="7"/>
     </row>
-    <row r="162" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P162" s="7"/>
     </row>
-    <row r="163" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P163" s="7"/>
     </row>
-    <row r="164" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P164" s="7"/>
     </row>
-    <row r="165" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P165" s="7"/>
     </row>
-    <row r="166" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P166" s="7"/>
     </row>
-    <row r="167" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P167" s="7"/>
     </row>
-    <row r="168" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P168" s="7"/>
     </row>
-    <row r="169" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P169" s="7"/>
     </row>
-    <row r="170" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P170" s="7"/>
     </row>
-    <row r="171" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P171" s="7"/>
     </row>
-    <row r="172" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="172" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P172" s="7"/>
     </row>
-    <row r="173" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P173" s="7"/>
     </row>
-    <row r="174" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P174" s="7"/>
     </row>
-    <row r="175" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P175" s="7"/>
     </row>
-    <row r="176" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="176" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P176" s="7"/>
     </row>
-    <row r="177" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P177" s="7"/>
     </row>
-    <row r="178" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P178" s="7"/>
     </row>
-    <row r="179" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P179" s="7"/>
     </row>
-    <row r="180" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P180" s="7"/>
     </row>
-    <row r="181" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P181" s="7"/>
     </row>
-    <row r="182" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P182" s="7"/>
     </row>
-    <row r="183" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="183" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P183" s="7"/>
     </row>
-    <row r="184" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="184" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P184" s="7"/>
     </row>
-    <row r="185" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P185" s="7"/>
     </row>
-    <row r="186" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P186" s="7"/>
     </row>
-    <row r="187" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P187" s="7"/>
     </row>
-    <row r="188" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P188" s="7"/>
     </row>
-    <row r="189" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P189" s="7"/>
     </row>
-    <row r="190" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P190" s="7"/>
     </row>
-    <row r="191" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="191" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P191" s="7"/>
     </row>
-    <row r="192" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P192" s="7"/>
     </row>
-    <row r="193" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P193" s="7"/>
     </row>
-    <row r="194" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P194" s="7"/>
     </row>
-    <row r="195" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P195" s="7"/>
     </row>
-    <row r="196" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P196" s="7"/>
     </row>
-    <row r="197" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P197" s="7"/>
     </row>
-    <row r="198" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="198" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P198" s="7"/>
     </row>
-    <row r="199" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P199" s="7"/>
     </row>
-    <row r="200" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="200" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P200" s="7"/>
     </row>
-    <row r="201" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="201" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P201" s="7"/>
     </row>
-    <row r="202" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="202" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P202" s="7"/>
     </row>
-    <row r="203" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="203" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P203" s="7"/>
     </row>
-    <row r="204" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="204" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P204" s="7"/>
     </row>
-    <row r="205" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="205" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P205" s="7"/>
     </row>
-    <row r="206" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="206" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P206" s="7"/>
     </row>
-    <row r="207" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="207" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P207" s="7"/>
     </row>
-    <row r="208" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="208" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P208" s="7"/>
     </row>
-    <row r="209" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="209" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P209" s="7"/>
     </row>
-    <row r="210" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="210" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P210" s="7"/>
     </row>
-    <row r="211" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="211" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P211" s="7"/>
     </row>
-    <row r="212" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="212" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P212" s="7"/>
     </row>
-    <row r="213" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="213" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P213" s="7"/>
     </row>
-    <row r="214" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="214" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P214" s="7"/>
     </row>
-    <row r="215" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="215" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P215" s="7"/>
     </row>
-    <row r="216" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="216" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P216" s="7"/>
     </row>
-    <row r="217" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="217" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P217" s="7"/>
     </row>
-    <row r="218" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="218" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P218" s="7"/>
     </row>
-    <row r="219" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="219" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P219" s="7"/>
     </row>
-    <row r="220" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="220" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P220" s="7"/>
     </row>
-    <row r="221" spans="16:16" x14ac:dyDescent="0.3">
+    <row r="221" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P221" s="7"/>
     </row>
   </sheetData>
@@ -14587,12 +14843,12 @@
       <selection activeCell="B4" sqref="B4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
@@ -14603,7 +14859,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -14614,7 +14870,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -14625,7 +14881,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -14636,7 +14892,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -14647,7 +14903,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -14658,7 +14914,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -14669,7 +14925,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -14693,9 +14949,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -14752,20 +15008,20 @@
       <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="5"/>
+    <col min="1" max="1" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -14797,7 +15053,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>65</v>
       </c>
@@ -14829,7 +15085,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>65</v>
       </c>
@@ -14861,7 +15117,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>65</v>
       </c>
@@ -14893,7 +15149,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -14925,7 +15181,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -14957,7 +15213,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -14989,7 +15245,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>130</v>
       </c>
@@ -15021,7 +15277,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>130</v>
       </c>
@@ -15053,7 +15309,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -15085,7 +15341,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -15117,7 +15373,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -15149,7 +15405,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -15181,7 +15437,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>113</v>
       </c>
@@ -15213,7 +15469,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>116</v>
       </c>
@@ -15245,7 +15501,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>116</v>
       </c>
@@ -15292,155 +15548,155 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>45398</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>45398.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>45398.083333333336</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>45398.125</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v>45398.166666666664</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v>45398.208333333336</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v>45398.25</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v>45398.291666666664</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v>45398.333333333336</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v>45398.375</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v>45398.416666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v>45398.458333333336</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v>45398.5</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v>45398.541666666664</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v>45398.583333333336</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v>45398.625</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v>45398.666666666664</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v>45398.708333333336</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v>45398.75</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v>45398.791666666664</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v>45398.833333333336</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v>45398.875</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v>45398.916666666664</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v>45398.958333333336</v>
@@ -15459,14 +15715,14 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>92</v>
       </c>

--- a/input_data/two_stage_dh_model.xlsx
+++ b/input_data/two_stage_dh_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA51A5CD-FC82-4A2A-94DF-8D06C8EFC96C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C94167-5C65-4AED-BB18-946393A5CD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="10" activeTab="19" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="10" activeTab="20" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -33,13 +33,14 @@
     <sheet name="market_prices" sheetId="8" r:id="rId18"/>
     <sheet name="balance_prices" sheetId="20" r:id="rId19"/>
     <sheet name="reserve_activation_price" sheetId="28" r:id="rId20"/>
-    <sheet name="risk" sheetId="17" r:id="rId21"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId22"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId23"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId24"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId25"/>
-    <sheet name="constraints" sheetId="14" r:id="rId26"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId27"/>
+    <sheet name="bid_slots" sheetId="29" r:id="rId21"/>
+    <sheet name="risk" sheetId="17" r:id="rId22"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId23"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId24"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId25"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId26"/>
+    <sheet name="constraints" sheetId="14" r:id="rId27"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="150">
   <si>
     <t>node</t>
   </si>
@@ -10471,8 +10472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50AC839B-83EF-4125-B3A8-4A12BECA18D1}">
   <dimension ref="A1:BA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10723,6 +10724,209 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EEEFDD-AB06-48CB-8034-A9C0C38E7F82}">
+  <dimension ref="A1:A31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>45398.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>45398.083333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>45398.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>45398.166666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>45398.208333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>45398.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>45398.291666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>45398.333333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>45398.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>45398.416666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>45398.458333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>45398.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>45398.541666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>45398.583333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>45398.625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>45398.666666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>45398.708333333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>45398.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>45398.791666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>45398.833333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>45398.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>45398.916666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>45398.958333333336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="str">
+        <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="str">
+        <f>IF(timeseries!A27&lt;&gt;"",timeseries!A27,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="str">
+        <f>IF(timeseries!A28&lt;&gt;"",timeseries!A28,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="str">
+        <f>IF(timeseries!A29&lt;&gt;"",timeseries!A29,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="str">
+        <f>IF(timeseries!A30&lt;&gt;"",timeseries!A30,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="str">
+        <f>IF(timeseries!A31&lt;&gt;"",timeseries!A31,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -10764,7 +10968,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -10811,7 +11015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -10985,7 +11189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -11405,7 +11609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -11824,7 +12028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M9"/>
   <sheetViews>
@@ -11892,7 +12096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:S25"/>
   <sheetViews>

--- a/input_data/two_stage_dh_model.xlsx
+++ b/input_data/two_stage_dh_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74C94167-5C65-4AED-BB18-946393A5CD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63307F1D-6F8E-4299-8BB9-54D978D89BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="10" activeTab="20" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="9" activeTab="9" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="149">
   <si>
     <t>node</t>
   </si>
@@ -342,9 +342,6 @@
   </si>
   <si>
     <t>node2</t>
-  </si>
-  <si>
-    <t>diff_coeff</t>
   </si>
   <si>
     <t>delay_t</t>
@@ -7160,26 +7157,202 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3CA5E7-5C31-4336-93EE-0293D708EE58}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>94</v>
+        <v>25</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>45398.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>45398.083333333336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>45398.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v>45398.166666666664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v>45398.208333333336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v>45398.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v>45398.291666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="8">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v>45398.333333333336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v>45398.375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v>45398.416666666664</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v>45398.458333333336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v>45398.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v>45398.541666666664</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v>45398.583333333336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v>45398.625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v>45398.666666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v>45398.708333333336</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v>45398.75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v>45398.791666666664</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v>45398.833333333336</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v>45398.875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v>45398.916666666664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v>45398.958333333336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="str">
+        <f>IF(timeseries!A26&lt;&gt;"",timeseries!A26,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="str">
+        <f>IF(timeseries!A27&lt;&gt;"",timeseries!A27,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="str">
+        <f>IF(timeseries!A28&lt;&gt;"",timeseries!A28,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="str">
+        <f>IF(timeseries!A29&lt;&gt;"",timeseries!A29,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="str">
+        <f>IF(timeseries!A30&lt;&gt;"",timeseries!A30,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="str">
+        <f>IF(timeseries!A31&lt;&gt;"",timeseries!A31,"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -7232,13 +7405,13 @@
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -8192,22 +8365,22 @@
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -10392,7 +10565,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -10400,7 +10573,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -10408,7 +10581,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -10416,7 +10589,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -10424,7 +10597,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6">
         <v>10000000</v>
@@ -10432,7 +10605,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -10440,7 +10613,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8">
         <v>10000000</v>
@@ -10448,7 +10621,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9">
         <v>12</v>
@@ -10456,10 +10629,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -10727,8 +10900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EEEFDD-AB06-48CB-8034-A9C0C38E7F82}">
   <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11208,13 +11381,13 @@
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11627,13 +11800,13 @@
         <v>25</v>
       </c>
       <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
         <v>123</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>124</v>
-      </c>
-      <c r="D1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -12073,7 +12246,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -12146,31 +12319,31 @@
         <v>91</v>
       </c>
       <c r="K1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" t="s">
+        <v>139</v>
+      </c>
+      <c r="M1" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" t="s">
         <v>137</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>140</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>134</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>138</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>141</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>135</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>139</v>
-      </c>
-      <c r="R1" t="s">
-        <v>142</v>
-      </c>
-      <c r="S1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -13664,7 +13837,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -13679,13 +13852,13 @@
         <v>51</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>53</v>
@@ -13793,7 +13966,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -13893,7 +14066,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -14018,7 +14191,7 @@
         <v>44</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>45</v>
@@ -14079,7 +14252,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
@@ -14132,7 +14305,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -14185,7 +14358,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -14238,7 +14411,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -14291,7 +14464,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -14344,7 +14517,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B8" s="7">
         <v>0</v>
@@ -15071,7 +15244,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -15082,7 +15255,7 @@
         <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -15090,10 +15263,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -15101,10 +15274,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -15112,10 +15285,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -15123,10 +15296,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -15134,10 +15307,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -15251,10 +15424,10 @@
         <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -15355,7 +15528,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
@@ -15387,13 +15560,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -15419,7 +15592,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>23</v>
@@ -15451,7 +15624,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
@@ -15483,7 +15656,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
@@ -15515,7 +15688,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>21</v>
@@ -15547,13 +15720,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -15579,13 +15752,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -15611,7 +15784,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>23</v>
@@ -15643,7 +15816,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>23</v>
@@ -15675,7 +15848,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
@@ -15707,7 +15880,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>23</v>
@@ -15934,13 +16107,13 @@
         <v>93</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/two_stage_dh_model.xlsx
+++ b/input_data/two_stage_dh_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63307F1D-6F8E-4299-8BB9-54D978D89BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303D5E6B-E7E5-4B9F-B880-E3FFF273B1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="9" activeTab="9" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="150">
   <si>
     <t>node</t>
   </si>
@@ -134,9 +134,6 @@
     <t>sink</t>
   </si>
   <si>
-    <t>VOM_cost</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
   </si>
   <si>
     <t>conversion_coeff</t>
-  </si>
-  <si>
-    <t>type</t>
   </si>
   <si>
     <t>energy</t>
@@ -359,9 +353,6 @@
     <t>is_temp</t>
   </si>
   <si>
-    <t>T_E_conversion</t>
-  </si>
-  <si>
     <t>use_market_bids</t>
   </si>
   <si>
@@ -507,6 +498,18 @@
   </si>
   <si>
     <t>hp_source,s3</t>
+  </si>
+  <si>
+    <t>vom_cost</t>
+  </si>
+  <si>
+    <t>t_e_conversion</t>
+  </si>
+  <si>
+    <t>market_type</t>
+  </si>
+  <si>
+    <t>group_type</t>
   </si>
 </sst>
 </file>
@@ -6954,7 +6957,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -7159,7 +7162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E3CA5E7-5C31-4336-93EE-0293D708EE58}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -7170,7 +7173,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7366,17 +7369,17 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -7402,16 +7405,16 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -7825,16 +7828,16 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8269,7 +8272,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8362,25 +8365,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8970,7 +8973,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8987,40 +8990,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="F1" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -9028,22 +9031,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7">
         <v>0</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H2" s="7">
         <v>1</v>
@@ -9092,7 +9095,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -9298,16 +9301,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -9744,25 +9747,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H1" s="3"/>
     </row>
@@ -10557,15 +10560,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -10573,7 +10576,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -10581,7 +10584,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -10589,7 +10592,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -10597,7 +10600,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B6">
         <v>10000000</v>
@@ -10605,7 +10608,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -10613,7 +10616,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>10000000</v>
@@ -10621,7 +10624,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B9">
         <v>12</v>
@@ -10629,10 +10632,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -10656,7 +10659,7 @@
   <sheetData>
     <row r="1" spans="1:53" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1"/>
       <c r="C1"/>
@@ -10911,7 +10914,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -11114,15 +11117,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -11130,7 +11133,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -11153,15 +11156,15 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>0.3</v>
@@ -11169,7 +11172,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>0.4</v>
@@ -11177,7 +11180,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4">
         <v>0.3</v>
@@ -11203,7 +11206,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -11378,16 +11381,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11797,16 +11800,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -12218,24 +12221,24 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -12246,10 +12249,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -12289,61 +12292,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
         <v>70</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>71</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" t="s">
-        <v>75</v>
-      </c>
       <c r="H1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" t="s">
         <v>89</v>
       </c>
-      <c r="I1" t="s">
-        <v>90</v>
-      </c>
-      <c r="J1" t="s">
-        <v>91</v>
-      </c>
       <c r="K1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" t="s">
         <v>136</v>
       </c>
-      <c r="L1" t="s">
-        <v>139</v>
-      </c>
       <c r="M1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="N1" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" t="s">
         <v>137</v>
       </c>
-      <c r="O1" t="s">
-        <v>140</v>
-      </c>
       <c r="P1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q1" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" t="s">
         <v>138</v>
       </c>
-      <c r="R1" t="s">
-        <v>141</v>
-      </c>
       <c r="S1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -13798,7 +13801,7 @@
   <dimension ref="A1:Q6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13825,7 +13828,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>6</v>
@@ -13837,7 +13840,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -13846,22 +13849,22 @@
         <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -13966,7 +13969,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -14016,7 +14019,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -14066,7 +14069,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -14152,13 +14155,13 @@
         <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>16</v>
@@ -14173,33 +14176,33 @@
         <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="L1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="7">
         <v>0</v>
@@ -14252,7 +14255,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
@@ -14305,7 +14308,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -14358,7 +14361,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -14411,7 +14414,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -14464,7 +14467,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -14517,7 +14520,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B8" s="7">
         <v>0</v>
@@ -15216,8 +15219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5539A729-4FB7-440D-A765-676495DE3453}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15227,13 +15230,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>149</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -15244,7 +15247,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -15252,10 +15255,10 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -15263,10 +15266,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -15274,10 +15277,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -15285,10 +15288,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -15296,10 +15299,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -15307,10 +15310,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -15382,7 +15385,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15409,13 +15412,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
+        <v>146</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>20</v>
@@ -15424,15 +15427,15 @@
         <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>21</v>
@@ -15464,7 +15467,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>23</v>
@@ -15496,13 +15499,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="5">
         <v>1</v>
@@ -15528,7 +15531,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
@@ -15560,13 +15563,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -15592,13 +15595,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -15624,7 +15627,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
@@ -15656,13 +15659,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="5">
         <v>1</v>
@@ -15688,13 +15691,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -15720,13 +15723,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -15752,13 +15755,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -15784,13 +15787,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D13" s="5">
         <v>1</v>
@@ -15816,13 +15819,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" s="5">
         <v>1</v>
@@ -15848,7 +15851,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
@@ -15880,13 +15883,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D16" s="5">
         <v>1</v>
@@ -15932,7 +15935,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
@@ -16101,19 +16104,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/input_data/two_stage_dh_model.xlsx
+++ b/input_data/two_stage_dh_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303D5E6B-E7E5-4B9F-B880-E3FFF273B1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E911949-E6B2-45CD-8E01-B08C63E36AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="4" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="151">
   <si>
     <t>node</t>
   </si>
@@ -368,9 +368,6 @@
     <t>use_ramp_dummy_variables</t>
   </si>
   <si>
-    <t>common_timesteps</t>
-  </si>
-  <si>
     <t>common_scenario_name</t>
   </si>
   <si>
@@ -510,6 +507,12 @@
   </si>
   <si>
     <t>group_type</t>
+  </si>
+  <si>
+    <t>common_start_timesteps</t>
+  </si>
+  <si>
+    <t>common_end_timesteps</t>
   </si>
 </sst>
 </file>
@@ -7408,13 +7411,13 @@
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -8368,22 +8371,22 @@
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -8993,7 +8996,7 @@
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -10546,9 +10549,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB98B755-8BE1-4837-9877-4DDB59C80C3F}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -10600,7 +10603,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>10000000</v>
@@ -10616,7 +10619,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B8">
         <v>10000000</v>
@@ -10624,7 +10627,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="B9">
         <v>12</v>
@@ -10632,10 +10635,18 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" t="s">
-        <v>139</v>
+        <v>150</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -11384,13 +11395,13 @@
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -11803,13 +11814,13 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" t="s">
         <v>119</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>120</v>
-      </c>
-      <c r="D1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -12249,7 +12260,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -12322,31 +12333,31 @@
         <v>89</v>
       </c>
       <c r="K1" t="s">
+        <v>132</v>
+      </c>
+      <c r="L1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N1" t="s">
         <v>133</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>136</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>130</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>134</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>137</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>131</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>135</v>
-      </c>
-      <c r="R1" t="s">
-        <v>138</v>
-      </c>
-      <c r="S1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -13855,13 +13866,13 @@
         <v>49</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>96</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>51</v>
@@ -13969,7 +13980,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -14069,7 +14080,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -14194,7 +14205,7 @@
         <v>42</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q1" s="3" t="s">
         <v>43</v>
@@ -14255,7 +14266,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B3" s="7">
         <v>0</v>
@@ -14308,7 +14319,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="7">
         <v>0</v>
@@ -14361,7 +14372,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="7">
         <v>0</v>
@@ -14414,7 +14425,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -14467,7 +14478,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -14520,7 +14531,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="7">
         <v>0</v>
@@ -15219,7 +15230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5539A729-4FB7-440D-A765-676495DE3453}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -15230,7 +15241,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>60</v>
@@ -15247,7 +15258,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -15258,7 +15269,7 @@
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -15266,10 +15277,10 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -15277,10 +15288,10 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -15288,10 +15299,10 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -15299,10 +15310,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -15310,10 +15321,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -15418,7 +15429,7 @@
         <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>20</v>
@@ -15427,10 +15438,10 @@
         <v>19</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -15531,7 +15542,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>21</v>
@@ -15563,13 +15574,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -15595,7 +15606,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>23</v>
@@ -15627,7 +15638,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>21</v>
@@ -15659,7 +15670,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
@@ -15691,7 +15702,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>21</v>
@@ -15723,13 +15734,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="5">
         <v>1</v>
@@ -15755,13 +15766,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D12" s="5">
         <v>1</v>
@@ -15787,7 +15798,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>23</v>
@@ -15819,7 +15830,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>23</v>
@@ -15851,7 +15862,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>21</v>
@@ -15883,7 +15894,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>23</v>
